--- a/va_facility_data_2025-02-20/Delaware County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Delaware%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Delaware County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Delaware%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd5d7c49c0e2c4c3785c5d565bcbb71c6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb75008d44ac043dda3c713ab8ddc5e44"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9114e1b26bdf40128c7677187de2a7de"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb1492bdf10514c1493df7fa2ac88ee4d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rec1260aaa54646f394fd1e8b22d8d9a4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1c3cfcbbd33944698ae29cb6278a79da"/>
   </x:sheets>
 </x:workbook>
 </file>
